--- a/sd_female_2.xlsx
+++ b/sd_female_2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="19">
   <si>
     <t>MAV , CC</t>
   </si>
@@ -78,6 +78,9 @@
   <si>
     <t>Trace SD</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -324,6 +327,56 @@
         <v>4.279667692187743</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10.972573550256008</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.6015398359937836</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03469433409378291</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.258841774932164</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.378056117761644</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>62.101350262295234</v>
+      </c>
+      <c r="T5" t="n">
+        <v>12.202172320009169</v>
+      </c>
+      <c r="W5" t="n">
+        <v>352.9755475969566</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>144.67228942684875</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.3206705324618147</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>29.587931518346625</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8.319624656443828</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>7.141975709761209</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.3485377859735772</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>36.21660983810309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -331,7 +384,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,6 +587,56 @@
         <v>3.0477678535099892</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.36631300783081516</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.4704464007563731</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0035065365860613503</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.0906664536597552</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.25681337985547115</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.322152369737527</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.38697843609459087</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.54099586690226</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.9898013960193915</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.410768043635887</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>13.506076590200893</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3.1678895187395493</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.099091590521827</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.2577570503869008</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>6.742468235169849</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -541,7 +644,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -744,6 +847,56 @@
         <v>3.20347034046239</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8450943500566424</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.463294940007196</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.004672330635982965</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.9246262246366075</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5222914926647341</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.159305968199315</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.8547834468972618</v>
+      </c>
+      <c r="W5" t="n">
+        <v>13.259418515287665</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3.8627184760759845</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.6464267223195101</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>21.76438568758553</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5.002880668940173</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.9444451467495534</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.5257854836584469</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>12.008398004250951</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -751,7 +904,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -954,6 +1107,56 @@
         <v>3.8599078860626834</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.170787162589821</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.442069369626389</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.007530355716838267</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.8949869550278042</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5868098108661427</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.923002277631459</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.1612864879169902</v>
+      </c>
+      <c r="W5" t="n">
+        <v>12.344551092030244</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6.232245025592803</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.0814392104167865</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>18.216143528563816</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4.156229285055912</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.9076317181960536</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.5933370745056575</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>7.984985507309852</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -961,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1164,6 +1367,56 @@
         <v>3.205724047179774</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.9948088737325573</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.7067612941289356</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.009320425660515096</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.957883013484282</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8197687823681038</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>22.96012398740883</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.115468191149978</v>
+      </c>
+      <c r="W5" t="n">
+        <v>71.99463558198715</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>23.330549579910578</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.2579262263692503</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>30.72541414107303</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6.455700606913465</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>5.002901968713873</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.8298595040353839</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>26.041973249452795</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1171,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1374,6 +1627,56 @@
         <v>3.193048003954146</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.65534651283338</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.8211441896428517</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.036225547688603595</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.484323118232638</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.5461927911090616</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>102.69994848112457</v>
+      </c>
+      <c r="T5" t="n">
+        <v>16.509735078808315</v>
+      </c>
+      <c r="W5" t="n">
+        <v>384.21061677062517</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>196.28743150359932</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.6100749391445879</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>26.92767964790576</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>11.606858542424055</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>6.3634336754175225</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.5053963868571438</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>36.73827256087299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1381,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1584,6 +1887,56 @@
         <v>3.6606010435446255</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.9409386573553182</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.2343736777814998</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01856009593945782</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.038784947074429</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8874576874207968</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>26.47180005030692</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4.074288751651805</v>
+      </c>
+      <c r="W5" t="n">
+        <v>74.30361297201556</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>34.18530852284138</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.4125548457344281</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>23.619553042422794</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6.185863089543955</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.992183724859212</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.8834010277558461</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>19.56328912886417</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1591,7 +1944,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1794,6 +2147,56 @@
         <v>1.2202003478482084</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.5768725392625216</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.3757059512644896</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.008150080835435483</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.350165094306845</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5877692031760554</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>10.410163097824123</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.5865814777235199</v>
+      </c>
+      <c r="W5" t="n">
+        <v>61.61339453069405</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9.967361294816348</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.4004212060550003</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>24.305712439668664</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5.710155947066819</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>4.374495327689856</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.5945697092352988</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>25.143732511211468</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1801,7 +2204,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2004,6 +2407,56 @@
         <v>3.0630413353760377</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.197761418003572</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.488275012122904</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.020868473642696048</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.269768470638017</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6325859244904279</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>51.495632773319045</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7.4749380743328855</v>
+      </c>
+      <c r="W5" t="n">
+        <v>171.8221244656365</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>58.448212303081185</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.1652797747008812</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15.637522798571107</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5.442384664833746</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.1650240551534083</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.6064677785738021</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>14.764174896877414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2011,7 +2464,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2214,6 +2667,56 @@
         <v>3.8828683555673975</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.802036174556092</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.19029927249144</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.009885687882693991</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.260564380571885</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.44677350287988776</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.817596680175335</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.8566340914159872</v>
+      </c>
+      <c r="W5" t="n">
+        <v>14.34123759109778</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.910358564573255</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.2402255360137697</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>20.672034776696886</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3.3964491115390687</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>4.285354366925018</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.4504224601632172</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>13.637772712034755</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2221,7 +2724,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2424,6 +2927,56 @@
         <v>3.063041335376038</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.475634856682594</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.4013956185309533</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.008123645060435907</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.1324707753173473</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8560058481639121</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>20.936078654869007</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5252464310947533</v>
+      </c>
+      <c r="W5" t="n">
+        <v>40.61200004481879</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15.01890441229636</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.3899107971593894</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>20.502758292063685</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.465574227800372</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.1111119200109623</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.8575323481663704</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>16.546900290034447</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2431,7 +2984,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2634,6 +3187,56 @@
         <v>2.573367875415838</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6557633019375756</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.4315099842358663</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.003896751571969302</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.477592907268719</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4495149536973573</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5.647478585937864</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.6625964788711312</v>
+      </c>
+      <c r="W5" t="n">
+        <v>12.419575327620331</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.2895402293496145</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.5261002472489282</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>18.623955500891977</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5.116075691367994</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.484989880470473</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.4525470484413791</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>12.29093131401718</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
